--- a/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1_В15.xlsx
+++ b/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1_В15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\Курс 3\МО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA21E1D-5BEA-4F1A-89FA-F6039FF635E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1926FF5-B96A-47B1-8355-59226B8720B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="С 1.1 Бухгалтерская" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="С 2.1 Бухгалтерская" sheetId="13" r:id="rId5"/>
     <sheet name="С 2.2 Маржинальная" sheetId="11" r:id="rId6"/>
     <sheet name="С 2.2-1 Маржинальная" sheetId="12" r:id="rId7"/>
-    <sheet name="Переменные" sheetId="2" r:id="rId8"/>
+    <sheet name="С 2.3 Маржинальная на маш. ч." sheetId="15" r:id="rId8"/>
+    <sheet name="Переменные" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$A$2:$G$2</definedName>
@@ -30,6 +31,7 @@
     <definedName name="solver_adj" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$G$18:$K$18</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$G$18:$K$18</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$2:$G$2</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$G$18:$K$18</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
@@ -37,6 +39,7 @@
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
@@ -44,6 +47,7 @@
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
@@ -51,6 +55,7 @@
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
@@ -58,6 +63,7 @@
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
@@ -65,6 +71,7 @@
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$A$7</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$17</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$17</definedName>
@@ -72,14 +79,19 @@
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$17</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$17</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$17</definedName>
     <definedName name="solver_lhs10" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$26</definedName>
     <definedName name="solver_lhs10" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$26</definedName>
+    <definedName name="solver_lhs10" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$26</definedName>
     <definedName name="solver_lhs11" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$27</definedName>
     <definedName name="solver_lhs11" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$27</definedName>
+    <definedName name="solver_lhs11" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$27</definedName>
     <definedName name="solver_lhs12" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$28</definedName>
     <definedName name="solver_lhs12" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$28</definedName>
+    <definedName name="solver_lhs12" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$28</definedName>
     <definedName name="solver_lhs13" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$29</definedName>
     <definedName name="solver_lhs13" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$29</definedName>
+    <definedName name="solver_lhs13" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$29</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$A$8</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$18</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$18</definedName>
@@ -87,44 +99,52 @@
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$18</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$18</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$11</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$18</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$19</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$19</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$19</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$19</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$19</definedName>
     <definedName name="solver_lhs3" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$19</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$20</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$20</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$20</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$20</definedName>
     <definedName name="solver_lhs4" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$20</definedName>
     <definedName name="solver_lhs4" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$8</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$20</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$21</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$21</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$21</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$21</definedName>
     <definedName name="solver_lhs5" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$21</definedName>
     <definedName name="solver_lhs5" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$9</definedName>
+    <definedName name="solver_lhs5" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$21</definedName>
     <definedName name="solver_lhs6" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$22</definedName>
     <definedName name="solver_lhs6" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$22</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$22</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$22</definedName>
     <definedName name="solver_lhs6" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$22</definedName>
     <definedName name="solver_lhs7" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$23</definedName>
     <definedName name="solver_lhs7" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$23</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$23</definedName>
     <definedName name="solver_lhs7" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$23</definedName>
     <definedName name="solver_lhs7" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$23</definedName>
     <definedName name="solver_lhs8" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$24</definedName>
     <definedName name="solver_lhs8" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$24</definedName>
     <definedName name="solver_lhs8" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$24</definedName>
     <definedName name="solver_lhs8" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$24</definedName>
     <definedName name="solver_lhs8" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$24</definedName>
+    <definedName name="solver_lhs8" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$24</definedName>
     <definedName name="solver_lhs9" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$25</definedName>
     <definedName name="solver_lhs9" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$25</definedName>
     <definedName name="solver_lhs9" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$B$25</definedName>
     <definedName name="solver_lhs9" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$B$25</definedName>
     <definedName name="solver_lhs9" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$B$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$B$25</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
@@ -132,6 +152,7 @@
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
@@ -139,6 +160,7 @@
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
@@ -146,6 +168,7 @@
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
@@ -153,6 +176,7 @@
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
@@ -160,6 +184,7 @@
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
@@ -167,6 +192,7 @@
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">9</definedName>
@@ -174,6 +200,7 @@
     <definedName name="solver_num" localSheetId="4" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">13</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
@@ -181,13 +208,15 @@
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$A$4</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$G$20</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$G$20</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$G$20</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$H$21</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$G$20</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$G$20</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$G$21</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$4</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$G$20</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
@@ -195,6 +224,7 @@
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
@@ -202,6 +232,7 @@
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
@@ -209,14 +240,19 @@
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel10" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel10" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel11" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel11" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel12" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel12" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel13" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
@@ -224,44 +260,52 @@
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel5" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel6" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel8" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$C$7</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$17</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$17</definedName>
@@ -269,14 +313,19 @@
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$17</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$17</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$17</definedName>
     <definedName name="solver_rhs10" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$26</definedName>
     <definedName name="solver_rhs10" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$26</definedName>
+    <definedName name="solver_rhs10" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$26</definedName>
     <definedName name="solver_rhs11" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$27</definedName>
     <definedName name="solver_rhs11" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$27</definedName>
+    <definedName name="solver_rhs11" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$27</definedName>
     <definedName name="solver_rhs12" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$28</definedName>
     <definedName name="solver_rhs12" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$28</definedName>
+    <definedName name="solver_rhs12" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$28</definedName>
     <definedName name="solver_rhs13" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$29</definedName>
     <definedName name="solver_rhs13" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$29</definedName>
+    <definedName name="solver_rhs13" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$29</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$C$8</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$18</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$18</definedName>
@@ -284,44 +333,52 @@
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$18</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$18</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$11</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$18</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$19</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$19</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$19</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$19</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$19</definedName>
     <definedName name="solver_rhs3" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$7</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$19</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$20</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$20</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$20</definedName>
     <definedName name="solver_rhs4" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$20</definedName>
     <definedName name="solver_rhs4" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$20</definedName>
     <definedName name="solver_rhs4" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$8</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$20</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$21</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$21</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$21</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$21</definedName>
     <definedName name="solver_rhs5" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$21</definedName>
     <definedName name="solver_rhs5" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$9</definedName>
+    <definedName name="solver_rhs5" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$21</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$22</definedName>
     <definedName name="solver_rhs6" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$22</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$22</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$22</definedName>
     <definedName name="solver_rhs6" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$22</definedName>
+    <definedName name="solver_rhs6" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$22</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$23</definedName>
     <definedName name="solver_rhs7" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$23</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$23</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$23</definedName>
     <definedName name="solver_rhs7" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$23</definedName>
+    <definedName name="solver_rhs7" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$23</definedName>
     <definedName name="solver_rhs8" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$24</definedName>
     <definedName name="solver_rhs8" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$24</definedName>
     <definedName name="solver_rhs8" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$24</definedName>
     <definedName name="solver_rhs8" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$24</definedName>
     <definedName name="solver_rhs8" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$24</definedName>
+    <definedName name="solver_rhs8" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$24</definedName>
     <definedName name="solver_rhs9" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$25</definedName>
     <definedName name="solver_rhs9" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$25</definedName>
     <definedName name="solver_rhs9" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$D$25</definedName>
     <definedName name="solver_rhs9" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$D$25</definedName>
     <definedName name="solver_rhs9" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$D$25</definedName>
+    <definedName name="solver_rhs9" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$D$25</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
@@ -329,6 +386,7 @@
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
@@ -336,6 +394,7 @@
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
@@ -343,13 +402,15 @@
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
@@ -357,6 +418,7 @@
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
@@ -364,6 +426,7 @@
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
@@ -371,6 +434,7 @@
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
@@ -378,6 +442,7 @@
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
@@ -385,6 +450,7 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">2800</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
@@ -392,6 +458,7 @@
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -414,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="163">
   <si>
     <t>Исходные показатели</t>
   </si>
@@ -836,9 +903,6 @@
     <t>Косвенные</t>
   </si>
   <si>
-    <t>Маржинальная прибыль по маш. ч.</t>
-  </si>
-  <si>
     <t>y1</t>
   </si>
   <si>
@@ -902,10 +966,10 @@
     <t>чел-часов</t>
   </si>
   <si>
-    <t>рублей за кг</t>
-  </si>
-  <si>
     <t>рублей за период</t>
+  </si>
+  <si>
+    <t>Маржинальная прибыль на маш. ч.</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1227,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1205,9 +1269,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,24 +1294,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1525,7 +1584,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="A1:Q14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1538,19 +1597,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="13" t="s">
         <v>125</v>
       </c>
@@ -1564,8 +1623,8 @@
         <v>113</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -1576,7 +1635,6 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
       <c r="F2" s="14" t="s">
         <v>138</v>
       </c>
@@ -1587,7 +1645,6 @@
         <v>104</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="28"/>
       <c r="K2" s="13" t="s">
         <v>61</v>
       </c>
@@ -1606,8 +1663,7 @@
       <c r="O2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -1624,7 +1680,6 @@
       <c r="D3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="28"/>
       <c r="F3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1639,7 +1694,6 @@
       <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="28"/>
       <c r="K3" s="13" t="s">
         <v>63</v>
       </c>
@@ -1658,12 +1712,11 @@
       <c r="O3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>158</v>
+      <c r="A4" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
@@ -1674,9 +1727,8 @@
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>158</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
@@ -1691,21 +1743,10 @@
       <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="F5" s="13" t="s">
         <v>122</v>
       </c>
@@ -1720,30 +1761,18 @@
       <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
       <c r="N5" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -1751,7 +1780,6 @@
       <c r="L6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="28"/>
       <c r="N6" s="13">
         <f>Переменные!R2</f>
         <v>20</v>
@@ -1759,15 +1787,10 @@
       <c r="O6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="F7" s="14" t="s">
         <v>139</v>
       </c>
@@ -1778,21 +1801,10 @@
         <v>104</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="F8" s="13" t="s">
         <v>117</v>
       </c>
@@ -1807,25 +1819,19 @@
       <c r="I8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="28"/>
       <c r="K8" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="33"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="F9" s="13" t="s">
         <v>118</v>
       </c>
@@ -1840,7 +1846,6 @@
       <c r="I9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="28"/>
       <c r="K9" s="13">
         <f>Переменные!R22</f>
         <v>2440</v>
@@ -1848,23 +1853,18 @@
       <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="28"/>
       <c r="N9" s="13">
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
@@ -1879,26 +1879,18 @@
       <c r="I10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
       <c r="N10" s="13">
         <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
         <v>480</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
@@ -1913,21 +1905,10 @@
       <c r="I11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="F12" s="13" t="s">
         <v>120</v>
       </c>
@@ -1942,21 +1923,10 @@
       <c r="I12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
@@ -1971,49 +1941,42 @@
       <c r="I13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14"/>
       <c r="E16" s="16"/>
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2216,47 +2179,47 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
       <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="18">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="18">
         <v>10.400000165945533</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -2265,16 +2228,16 @@
         <f>200*A2+50*B2+120*C2+280*D2+480*E2+480*F2-90*G2</f>
         <v>1248.000019913464</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2311,7 +2274,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,19 +2285,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="13" t="s">
         <v>125</v>
       </c>
@@ -2348,8 +2311,8 @@
         <v>113</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -2360,7 +2323,6 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
       <c r="F2" s="14" t="s">
         <v>107</v>
       </c>
@@ -2371,7 +2333,6 @@
         <v>104</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="28"/>
       <c r="K2" s="13" t="s">
         <v>61</v>
       </c>
@@ -2390,8 +2351,7 @@
       <c r="O2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -2408,7 +2368,6 @@
       <c r="D3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="28"/>
       <c r="F3" s="13" t="s">
         <v>115</v>
       </c>
@@ -2423,7 +2382,6 @@
       <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="28"/>
       <c r="K3" s="13" t="s">
         <v>63</v>
       </c>
@@ -2442,12 +2400,11 @@
       <c r="O3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>158</v>
+      <c r="A4" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
@@ -2458,9 +2415,8 @@
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>158</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
@@ -2475,21 +2431,10 @@
       <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="F5" s="13" t="s">
         <v>117</v>
       </c>
@@ -2504,25 +2449,18 @@
       <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
       <c r="N5" s="13" t="s">
         <v>110</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="F6" s="13" t="s">
         <v>122</v>
       </c>
@@ -2537,7 +2475,6 @@
       <c r="I6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="28"/>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -2545,7 +2482,6 @@
       <c r="L6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="28"/>
       <c r="N6" s="13">
         <f>Переменные!R2</f>
         <v>20</v>
@@ -2553,59 +2489,31 @@
       <c r="O6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="F8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
       <c r="K8" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="33"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="F9" s="13" t="s">
         <v>118</v>
       </c>
@@ -2613,11 +2521,10 @@
         <f>Переменные!R30*Переменные!R29</f>
         <v>48</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
+      <c r="H9" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="34"/>
       <c r="K9" s="13">
         <f>Переменные!R22</f>
         <v>2440</v>
@@ -2625,23 +2532,18 @@
       <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="28"/>
       <c r="N9" s="13">
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
@@ -2649,30 +2551,22 @@
         <f>Переменные!R31</f>
         <v>240</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="34"/>
       <c r="N10" s="13">
         <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
         <v>480</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
@@ -2680,25 +2574,14 @@
         <f>Переменные!R32</f>
         <v>72</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
+      <c r="H11" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="F12" s="13" t="s">
         <v>120</v>
       </c>
@@ -2706,25 +2589,14 @@
         <f>Переменные!R33</f>
         <v>24</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
@@ -2732,53 +2604,46 @@
         <f>SUM(G9:G12)</f>
         <v>384</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
+      <c r="H13" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14"/>
       <c r="E16" s="16"/>
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2954,18 +2819,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2975,8 +2840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665EA7E9-D282-430A-9004-459D57B9178E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,19 +2853,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="13" t="s">
         <v>125</v>
       </c>
@@ -3014,8 +2879,8 @@
         <v>113</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -3026,7 +2891,6 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
       <c r="F2" s="14" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +2901,6 @@
         <v>104</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="28"/>
       <c r="K2" s="13" t="s">
         <v>61</v>
       </c>
@@ -3050,14 +2913,12 @@
         <v>2</v>
       </c>
       <c r="N2" s="13">
-        <f>Переменные!R17</f>
         <v>120</v>
       </c>
       <c r="O2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -3074,7 +2935,6 @@
       <c r="D3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="28"/>
       <c r="F3" s="13" t="s">
         <v>115</v>
       </c>
@@ -3089,7 +2949,6 @@
       <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="28"/>
       <c r="K3" s="13" t="s">
         <v>63</v>
       </c>
@@ -3108,25 +2967,22 @@
       <c r="O3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>158</v>
+      <c r="A4" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
         <v>200</v>
       </c>
       <c r="C4" s="13">
-        <f>Переменные!R10</f>
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>158</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
@@ -3141,21 +2997,10 @@
       <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="F5" s="13" t="s">
         <v>117</v>
       </c>
@@ -3170,25 +3015,18 @@
       <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
       <c r="N5" s="13" t="s">
         <v>110</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="F6" s="13" t="s">
         <v>122</v>
       </c>
@@ -3203,7 +3041,6 @@
       <c r="I6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="28"/>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -3211,7 +3048,6 @@
       <c r="L6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="28"/>
       <c r="N6" s="13">
         <f>Переменные!R2</f>
         <v>20</v>
@@ -3219,59 +3055,31 @@
       <c r="O6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="F8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
       <c r="K8" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="33"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="F9" s="13" t="s">
         <v>118</v>
       </c>
@@ -3279,11 +3087,10 @@
         <f>Переменные!R30*Переменные!R29</f>
         <v>48</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
+      <c r="H9" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="34"/>
       <c r="K9" s="13">
         <f>Переменные!R22</f>
         <v>2440</v>
@@ -3291,23 +3098,18 @@
       <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="28"/>
       <c r="N9" s="13">
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
@@ -3315,30 +3117,22 @@
         <f>Переменные!R31</f>
         <v>240</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="34"/>
       <c r="N10" s="13">
         <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
         <v>480</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
@@ -3346,25 +3140,14 @@
         <f>Переменные!R32</f>
         <v>72</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
+      <c r="H11" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="F12" s="13" t="s">
         <v>120</v>
       </c>
@@ -3372,25 +3155,14 @@
         <f>Переменные!R33</f>
         <v>24</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
@@ -3398,53 +3170,46 @@
         <f>SUM(G9:G12)</f>
         <v>384</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
+      <c r="H13" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14"/>
       <c r="E16" s="16"/>
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3453,7 +3218,7 @@
       </c>
       <c r="B17" s="13">
         <f>G18</f>
-        <v>6.1666666666666643</v>
+        <v>120</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>130</v>
@@ -3475,7 +3240,7 @@
       </c>
       <c r="B18" s="13">
         <f>H18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>130</v>
@@ -3484,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="13">
-        <v>6.1666666666666643</v>
+        <v>120</v>
       </c>
       <c r="H18" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>131</v>
@@ -3499,7 +3264,7 @@
       </c>
       <c r="B19" s="13">
         <f>G18*L2+H18*M2</f>
-        <v>106.16666666666666</v>
+        <v>120</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>129</v>
@@ -3515,7 +3280,7 @@
       </c>
       <c r="B20" s="13">
         <f>G18*L3+H18*M3</f>
-        <v>62.333333333333329</v>
+        <v>240</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>129</v>
@@ -3525,14 +3290,14 @@
         <v>280</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="15">
-        <f>(G18*((B3-G6)) + H18*((C3-H6))) / (Переменные!R23 * G18 + Переменные!R24 * H18)</f>
-        <v>7.6042780748663104</v>
+        <v>162</v>
+      </c>
+      <c r="G20" s="13">
+        <f>((B3-G6)/Переменные!R23) *G18 + ((C3-H6)/Переменные!R24) * H18</f>
+        <v>720</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3541,7 +3306,7 @@
       </c>
       <c r="B21" s="13">
         <f>G18*(B3-G6) + H18*(C3 - H6)</f>
-        <v>474</v>
+        <v>1440</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>130</v>
@@ -3557,7 +3322,7 @@
       </c>
       <c r="B22" s="13">
         <f>2*G18 + 1 *H18</f>
-        <v>62.333333333333329</v>
+        <v>240</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>129</v>
@@ -3573,7 +3338,7 @@
       </c>
       <c r="B23" s="13">
         <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
-        <v>18.499999999999993</v>
+        <v>360</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>129</v>
@@ -3589,7 +3354,7 @@
       </c>
       <c r="B24" s="13">
         <f>G18</f>
-        <v>6.1666666666666643</v>
+        <v>120</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>129</v>
@@ -3608,7 +3373,7 @@
       </c>
       <c r="B25" s="13">
         <f>H18</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>129</v>
@@ -3620,18 +3385,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="N8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3641,8 +3406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5622570B-8A68-44E9-982D-15E808662CC2}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3654,19 +3419,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="13" t="s">
         <v>125</v>
       </c>
@@ -3680,8 +3445,8 @@
         <v>113</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -3692,7 +3457,6 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
       <c r="F2" s="14" t="s">
         <v>138</v>
       </c>
@@ -3703,7 +3467,6 @@
         <v>104</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="28"/>
       <c r="K2" s="13" t="s">
         <v>61</v>
       </c>
@@ -3722,8 +3485,7 @@
       <c r="O2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -3740,7 +3502,6 @@
       <c r="D3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="28"/>
       <c r="F3" s="13" t="s">
         <v>115</v>
       </c>
@@ -3755,7 +3516,6 @@
       <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="28"/>
       <c r="K3" s="13" t="s">
         <v>63</v>
       </c>
@@ -3774,12 +3534,11 @@
       <c r="O3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>158</v>
+      <c r="A4" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
@@ -3790,9 +3549,8 @@
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>158</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
@@ -3807,21 +3565,10 @@
       <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="F5" s="13" t="s">
         <v>122</v>
       </c>
@@ -3836,30 +3583,18 @@
       <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
       <c r="N5" s="13" t="s">
         <v>110</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -3867,7 +3602,6 @@
       <c r="L6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="28"/>
       <c r="N6" s="13">
         <f>Переменные!R2</f>
         <v>20</v>
@@ -3875,15 +3609,10 @@
       <c r="O6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="26"/>
       <c r="F7" s="14" t="s">
         <v>139</v>
       </c>
@@ -3894,21 +3623,10 @@
         <v>104</v>
       </c>
       <c r="I7" s="13"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="F8" s="13" t="s">
         <v>117</v>
       </c>
@@ -3923,25 +3641,19 @@
       <c r="I8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="28"/>
       <c r="K8" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="33"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="F9" s="13" t="s">
         <v>118</v>
       </c>
@@ -3956,7 +3668,6 @@
       <c r="I9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="28"/>
       <c r="K9" s="13">
         <f>Переменные!R22</f>
         <v>2440</v>
@@ -3964,23 +3675,18 @@
       <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="28"/>
       <c r="N9" s="13">
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
@@ -3995,26 +3701,18 @@
       <c r="I10" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
       <c r="N10" s="13">
-        <f>N6*Переменные!R4*Переменные!R5*(Переменные!R6 +K18)</f>
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
         <v>600</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
@@ -4029,21 +3727,10 @@
       <c r="I11" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="F12" s="13" t="s">
         <v>120</v>
       </c>
@@ -4058,21 +3745,10 @@
       <c r="I12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
@@ -4087,49 +3763,42 @@
       <c r="I13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14"/>
       <c r="E16" s="16"/>
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -4149,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="K17" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4191,7 +3860,7 @@
         <v>169.99999999999997</v>
       </c>
       <c r="K18" s="13">
-        <v>0.25000000000000011</v>
+        <v>120.00000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4225,14 +3894,14 @@
         <f>N3+J18</f>
         <v>450</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="13" t="s">
         <v>134</v>
       </c>
       <c r="G20" s="13">
         <f>G18*(B3-(G5+G13))+H18*(C3-(H5+H13))</f>
         <v>2439.9999999999995</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4319,14 +3988,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="13">
         <f>Переменные!R11 * I18 + Переменные!R12 * J18 + Переменные!R21 * K18</f>
-        <v>880.99999999999977</v>
-      </c>
-      <c r="C26" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="13">
@@ -4335,14 +4004,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>153</v>
+      <c r="A27" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B27" s="13">
         <f>I18</f>
         <v>179.99999999999997</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D27" s="13">
@@ -4350,14 +4019,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>154</v>
+      <c r="A28" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B28" s="13">
         <f>J18</f>
         <v>169.99999999999997</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="13">
@@ -4365,14 +4034,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>155</v>
+      <c r="A29" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="B29" s="13">
         <f>K18</f>
-        <v>0.25000000000000011</v>
-      </c>
-      <c r="C29" s="26" t="s">
+        <v>120.00000000000006</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="13">
@@ -4398,7 +4067,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4410,19 +4079,19 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
       <c r="I1" s="13"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="13" t="s">
         <v>125</v>
       </c>
@@ -4436,8 +4105,8 @@
         <v>113</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
@@ -4448,7 +4117,6 @@
         <v>104</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="28"/>
       <c r="F2" s="14" t="s">
         <v>107</v>
       </c>
@@ -4459,7 +4127,6 @@
         <v>104</v>
       </c>
       <c r="I2" s="13"/>
-      <c r="J2" s="28"/>
       <c r="K2" s="13" t="s">
         <v>61</v>
       </c>
@@ -4478,8 +4145,7 @@
       <c r="O2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
@@ -4496,7 +4162,6 @@
       <c r="D3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="28"/>
       <c r="F3" s="13" t="s">
         <v>115</v>
       </c>
@@ -4511,7 +4176,6 @@
       <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="28"/>
       <c r="K3" s="13" t="s">
         <v>63</v>
       </c>
@@ -4530,25 +4194,22 @@
       <c r="O3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>158</v>
+      <c r="A4" s="20" t="s">
+        <v>157</v>
       </c>
       <c r="B4" s="13">
         <f>Переменные!R9</f>
         <v>200</v>
       </c>
       <c r="C4" s="13">
-        <f>Переменные!R10</f>
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="28"/>
+        <v>158</v>
+      </c>
       <c r="F4" s="13" t="s">
         <v>116</v>
       </c>
@@ -4563,21 +4224,10 @@
       <c r="I4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="26"/>
       <c r="F5" s="13" t="s">
         <v>117</v>
       </c>
@@ -4592,25 +4242,18 @@
       <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>109</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="28"/>
       <c r="N5" s="13" t="s">
         <v>110</v>
       </c>
       <c r="O5" s="13"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="A6" s="26"/>
       <c r="F6" s="13" t="s">
         <v>122</v>
       </c>
@@ -4625,7 +4268,6 @@
       <c r="I6" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="28"/>
       <c r="K6" s="13">
         <f>Переменные!R3</f>
         <v>90</v>
@@ -4633,7 +4275,6 @@
       <c r="L6" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M6" s="28"/>
       <c r="N6" s="13">
         <f>Переменные!R2</f>
         <v>20</v>
@@ -4641,59 +4282,31 @@
       <c r="O6" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="33"/>
+      <c r="A7" s="26"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="F8" s="14" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
       <c r="K8" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="33"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="26"/>
       <c r="F9" s="13" t="s">
         <v>118</v>
       </c>
@@ -4701,11 +4314,10 @@
         <f>Переменные!R30*Переменные!R29</f>
         <v>48</v>
       </c>
-      <c r="H9" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="28"/>
+      <c r="H9" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="34"/>
       <c r="K9" s="13">
         <f>Переменные!R22</f>
         <v>2440</v>
@@ -4713,23 +4325,18 @@
       <c r="L9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="28"/>
       <c r="N9" s="13">
         <f>N6*Переменные!R4*Переменные!R5</f>
         <v>480</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="O9" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="A10" s="26"/>
       <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
@@ -4737,30 +4344,22 @@
         <f>Переменные!R31</f>
         <v>240</v>
       </c>
-      <c r="H10" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="H10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="34"/>
       <c r="N10" s="13">
-        <f>N6*Переменные!R4*Переменные!R5*(Переменные!R6 +K18)</f>
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
         <v>600</v>
       </c>
-      <c r="O10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="33"/>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="A11" s="26"/>
       <c r="F11" s="13" t="s">
         <v>119</v>
       </c>
@@ -4768,25 +4367,14 @@
         <f>Переменные!R32</f>
         <v>72</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="33"/>
+      <c r="H11" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="F12" s="13" t="s">
         <v>120</v>
       </c>
@@ -4794,25 +4382,14 @@
         <f>Переменные!R33</f>
         <v>24</v>
       </c>
-      <c r="H12" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="33"/>
+      <c r="H12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="F13" s="13" t="s">
         <v>123</v>
       </c>
@@ -4820,53 +4397,46 @@
         <f>SUM(G9:G12)</f>
         <v>384</v>
       </c>
-      <c r="H13" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="33"/>
+      <c r="H13" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="14"/>
       <c r="E16" s="16"/>
       <c r="F16" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="32"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -4886,19 +4456,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="J17" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="K17" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4928,7 +4498,7 @@
         <v>170</v>
       </c>
       <c r="K18" s="13">
-        <v>0.25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5057,14 +4627,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="13" t="s">
         <v>126</v>
       </c>
       <c r="B26" s="13">
         <f>Переменные!R11 * I18 + Переменные!R12 * J18 + Переменные!R21 * K18</f>
-        <v>881</v>
-      </c>
-      <c r="C26" s="26" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>129</v>
       </c>
       <c r="D26" s="13">
@@ -5073,14 +4643,14 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="26" t="s">
-        <v>153</v>
+      <c r="A27" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="B27" s="13">
         <f>I18</f>
         <v>180</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D27" s="13">
@@ -5088,14 +4658,14 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>154</v>
+      <c r="A28" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="B28" s="13">
         <f>J18</f>
         <v>170</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="13">
@@ -5103,14 +4673,14 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>155</v>
+      <c r="A29" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="B29" s="13">
         <f>K18</f>
-        <v>0.25</v>
-      </c>
-      <c r="C29" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D29" s="13">
@@ -5119,9 +4689,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="N8:P8"/>
@@ -5131,6 +4698,9 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5141,60 +4711,60 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
-        <v>145</v>
-      </c>
       <c r="F1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="G1" t="s">
-        <v>149</v>
-      </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>12</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="18">
         <v>8</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="18">
         <v>0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="18">
         <v>0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="18">
         <v>0</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="18">
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5203,16 +4773,16 @@
         <f>200*A2+50*B2+120*C2+280*D2+480*E2+480*F2-90*G2+2440*H2</f>
         <v>2800</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="s">
         <v>146</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -5278,6 +4848,650 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCBA3B1-0952-4C69-A95F-E77C5484088E}">
+  <dimension ref="A1:Q29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="F2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="13">
+        <f>Переменные!R13</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="13">
+        <f>Переменные!R14</f>
+        <v>2</v>
+      </c>
+      <c r="N2" s="13">
+        <f>Переменные!R17</f>
+        <v>120</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="13">
+        <f>Переменные!R7</f>
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <f>Переменные!R8</f>
+        <v>24.5</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="13">
+        <f>Переменные!R11*Переменные!R13 + Переменные!R12*Переменные!R14</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="13">
+        <f>Переменные!R11*Переменные!R15 + Переменные!R12*Переменные!R16</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="13">
+        <f>Переменные!R15</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <f>Переменные!R16</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="13">
+        <f>Переменные!R18</f>
+        <v>280</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="13">
+        <f>Переменные!R9</f>
+        <v>200</v>
+      </c>
+      <c r="C4" s="13">
+        <v>50</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="13">
+        <f>Переменные!R19*Переменные!R21</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="13">
+        <f>Переменные!R20*Переменные!R21</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q4" s="23"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="F5" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="13">
+        <f>Переменные!R27*Переменные!R29</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>Переменные!R28*Переменные!R29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="N5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="Q5" s="23"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="F6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="13">
+        <f>SUM(G3:G5)</f>
+        <v>20</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(H3:H5)</f>
+        <v>16.5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="13">
+        <f>Переменные!R3</f>
+        <v>90</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="13">
+        <f>Переменные!R2</f>
+        <v>20</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="23"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="F8" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="K8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="F9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="13">
+        <f>Переменные!R30*Переменные!R29</f>
+        <v>48</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="K9" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="13">
+        <f>N6*Переменные!R4*Переменные!R5</f>
+        <v>480</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="F10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="15">
+        <f>Переменные!R31</f>
+        <v>240</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="N10" s="13">
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
+        <v>600</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="F11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="15">
+        <f>Переменные!R32</f>
+        <v>72</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="F12" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="15">
+        <f>Переменные!R33</f>
+        <v>24</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="Q12" s="23"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="F13" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G9:G12)</f>
+        <v>384</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="Q13" s="23"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="13">
+        <f>G18</f>
+        <v>200</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="13">
+        <f>H18</f>
+        <v>50</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>200</v>
+      </c>
+      <c r="H18" s="13">
+        <v>50</v>
+      </c>
+      <c r="I18" s="13">
+        <v>180</v>
+      </c>
+      <c r="J18" s="13">
+        <v>170</v>
+      </c>
+      <c r="K18" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <f>G18*L2+H18*M2</f>
+        <v>300</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="13">
+        <f>N2+I18</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="13">
+        <f>G18*L3+H18*M3</f>
+        <v>450</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="13">
+        <f>N3+J18</f>
+        <v>450</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="13">
+        <f>G18*((B3-G6)/Переменные!R23) + H18*((C3 - H6)/Переменные!R24)</f>
+        <v>1600</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="13">
+        <f>G18*(B3-G6) + H18*(C3 - H6)</f>
+        <v>2800</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="13">
+        <f>K6+G13</f>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="13">
+        <f>2*G18 + 1 *H18</f>
+        <v>450</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="13">
+        <f>N9</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="13">
+        <f>Переменные!R19 * G18 + Переменные!R20 * 'С 1.1 Бухгалтерская'!H18</f>
+        <v>600</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="13">
+        <f>N10</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="13">
+        <f>G18</f>
+        <v>200</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="13">
+        <f>B4</f>
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="13">
+        <f>H18</f>
+        <v>50</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C4</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="13">
+        <f>Переменные!R11 * I18 + Переменные!R12 * J18 + Переменные!R21 * K18</f>
+        <v>1360</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="13">
+        <f>Переменные!R22</f>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="13">
+        <f>I18</f>
+        <v>180</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="13">
+        <f>J18</f>
+        <v>170</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="13">
+        <f>K18</f>
+        <v>120</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="O10:P10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE5B83-6808-4823-8483-CC874B6076B2}">
   <dimension ref="A1:Z33"/>
   <sheetViews>

--- a/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1_В15.xlsx
+++ b/Курс 3/МО/ИД23-1_Маслов_АН_МО_КР-1_В15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Desktop\Рабочая папка\ITiABD\Курс 3\МО\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1926FF5-B96A-47B1-8355-59226B8720B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994682D0-25B3-4FD8-B95E-381EF065B25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="С 1.1 Бухгалтерская" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="solver_adj" localSheetId="3" hidden="1">'С 1.3 Маржинальная на маш. ч.'!$G$18:$H$18</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'С 2.1 Бухгалтерская'!$G$18:$K$18</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'С 2.2 Маржинальная'!$G$18:$K$18</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$2:$G$2</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$2:$H$2</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'С 2.3 Маржинальная на маш. ч.'!$G$18:$K$18</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -54,7 +54,7 @@
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -72,6 +72,7 @@
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs0" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$A$7</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$A$7</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$B$17</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$B$17</definedName>
@@ -199,7 +200,7 @@
     <definedName name="solver_num" localSheetId="3" hidden="1">9</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">13</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">13</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">13</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
@@ -233,6 +234,7 @@
     <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel0" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
@@ -306,6 +308,7 @@
     <definedName name="solver_rel9" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel9" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rhs0" localSheetId="6" hidden="1">'С 2.2-1 Маржинальная'!$C$10+'С 2.2-1 Маржинальная'!$C$7</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">'C 1.1-2 Бухгалтерская'!$C$7</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'С 1.1 Бухгалтерская'!$D$17</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">'С 1.2 Маржинальная'!$D$17</definedName>
@@ -2274,7 +2277,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2819,11 +2822,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="H12:I12"/>
@@ -2831,6 +2829,11 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2840,8 +2843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665EA7E9-D282-430A-9004-459D57B9178E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2978,6 +2981,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="13">
+        <f>Переменные!R10</f>
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -3305,8 +3309,8 @@
         <v>105</v>
       </c>
       <c r="B21" s="13">
-        <f>G18*(B3-G6) + H18*(C3 - H6)</f>
-        <v>1440</v>
+        <f>G18*((B3-G6)/Переменные!R23) + H18*((C3 - H6)/Переменные!R24)</f>
+        <v>720</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>130</v>
@@ -3385,11 +3389,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="H12:I12"/>
@@ -3397,6 +3396,11 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3407,7 +3411,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3702,8 +3706,8 @@
         <v>121</v>
       </c>
       <c r="N10" s="13">
-        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
-        <v>600</v>
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
+        <v>480</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>160</v>
@@ -3948,7 +3952,7 @@
         <v>129</v>
       </c>
       <c r="D23" s="13">
-        <f>N10</f>
+        <f>N10 + K18</f>
         <v>600</v>
       </c>
     </row>
@@ -4067,7 +4071,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4205,6 +4209,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="13">
+        <f>Переменные!R10</f>
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -4349,8 +4354,8 @@
       </c>
       <c r="I10" s="34"/>
       <c r="N10" s="13">
-        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
-        <v>600</v>
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
+        <v>480</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>160</v>
@@ -4587,7 +4592,7 @@
         <v>129</v>
       </c>
       <c r="D23" s="13">
-        <f>N10</f>
+        <f>N10 + K18</f>
         <v>600</v>
       </c>
     </row>
@@ -4711,7 +4716,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4744,13 +4749,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
-        <v>12</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="B2" s="18">
-        <v>8</v>
+        <v>7.9999999999999982</v>
       </c>
       <c r="C2" s="18">
-        <v>0</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="D2" s="18">
         <v>0</v>
@@ -4759,18 +4764,18 @@
         <v>0</v>
       </c>
       <c r="F2" s="18">
-        <v>0</v>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="G2" s="18">
         <v>0</v>
       </c>
       <c r="H2" s="18">
-        <v>0</v>
+        <v>2.2204460492503131E-16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>200*A2+50*B2+120*C2+280*D2+480*E2+480*F2-90*G2+2440*H2</f>
+        <f>200*A2+50*B2+120*C2+280*D2+480*E2+480*F2-474*G2+2440*H2</f>
         <v>2800</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -4811,7 +4816,8 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <f>-C2+3*H2</f>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
@@ -4822,7 +4828,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <f>-D2+2*H2</f>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="B10" t="s">
         <v>130</v>
@@ -4833,7 +4840,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <f>-F2 + 4*H2</f>
+        <v>4.4408920985006262E-16</v>
       </c>
       <c r="B11" t="s">
         <v>130</v>
@@ -4851,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCBA3B1-0952-4C69-A95F-E77C5484088E}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4990,6 +4998,7 @@
         <v>200</v>
       </c>
       <c r="C4" s="13">
+        <f>Переменные!R10</f>
         <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -5134,8 +5143,8 @@
       </c>
       <c r="I10" s="34"/>
       <c r="N10" s="13">
-        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6 +K18</f>
-        <v>600</v>
+        <f>N6*Переменные!R4*Переменные!R5*Переменные!R6</f>
+        <v>480</v>
       </c>
       <c r="O10" s="32" t="s">
         <v>160</v>
@@ -5333,8 +5342,8 @@
         <v>105</v>
       </c>
       <c r="B21" s="13">
-        <f>G18*(B3-G6) + H18*(C3 - H6)</f>
-        <v>2800</v>
+        <f>G18*((B3-G6)/Переменные!R23) + H18*((C3 - H6)/Переменные!R24)</f>
+        <v>1600</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>130</v>
@@ -5372,7 +5381,7 @@
         <v>129</v>
       </c>
       <c r="D23" s="13">
-        <f>N10</f>
+        <f>N10 + K18</f>
         <v>600</v>
       </c>
     </row>
@@ -5474,18 +5483,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="O9:P9"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="O10:P10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5495,7 +5504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFE5B83-6808-4823-8483-CC874B6076B2}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
